--- a/biology/Mycologie/Mycocentrospora/Mycocentrospora.xlsx
+++ b/biology/Mycologie/Mycocentrospora/Mycocentrospora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycocentrospora est un genre de champignons phytopathogènes de l'ordre des Pleosporales.
 </t>
@@ -511,13 +523,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est initialement décrit en 1942 par l'agronome danois Paul Neergaard, sous le nom Centrospora[1]. Il est renommé en 1972 par Frederick Claude Deighton[2] sous son nom correct Mycocentrospora[3]. En effet, il existe deux genres portant le même nom : Centrospora Neergaard, 1942 (champignons) et Centrospora Trevisan, 1845 (algues brunes). Le genre d'algues ayant été décrit en premier, un nouveau nom, Mycocentrospora, a été proposé pour le genre de champignons[2].
-Mycocentrospora a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est initialement décrit en 1942 par l'agronome danois Paul Neergaard, sous le nom Centrospora. Il est renommé en 1972 par Frederick Claude Deighton sous son nom correct Mycocentrospora. En effet, il existe deux genres portant le même nom : Centrospora Neergaard, 1942 (champignons) et Centrospora Trevisan, 1845 (algues brunes). Le genre d'algues ayant été décrit en premier, un nouveau nom, Mycocentrospora, a été proposé pour le genre de champignons.
+Mycocentrospora a pour synonymes :
 Ansatospora A.G. Newhall, 1944
 Centrospora Neerg., 1942
-De l'ordre des Pleosporales, Mycocentrospora n'est généralement classé dans aucune famille[3],[4],[5],[6],[7]. Cependant, la Base de données mondiale de l'OEPP               (25 juin 2022)[8] le place dans les Dothidotthiaceae et le NCBI  (25 juin 2022)[9] dans les Mycosphaerellaceae.
+De l'ordre des Pleosporales, Mycocentrospora n'est généralement classé dans aucune famille. Cependant, la Base de données mondiale de l'OEPP               (25 juin 2022) le place dans les Dothidotthiaceae et le NCBI  (25 juin 2022) dans les Mycosphaerellaceae.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (25 juin 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (25 juin 2022) :
 Mycocentrospora acalyphae K. Srivast. &amp; A.K. Srivast., 1995
 Mycocentrospora acerina (R. Hartig) Deighton, 1972
 Mycocentrospora angulata (R.H. Petersen) S.H. Iqbal, 1974
